--- a/Logowanie Przypadki Testowe.xlsx
+++ b/Logowanie Przypadki Testowe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Argas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Argas\Desktop\Przypadki testowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69CBB68-A2CB-4319-B1F2-AB14D8099033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968DC21F-8CB9-4212-8641-882C26F0F9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A88B2661-681E-4B75-BF39-8B4D8A9B23B7}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>1. Wejście na strone organic24.pl 2. Nie zalogowanie się do konta na facebooku</t>
   </si>
   <si>
-    <t>1. Wejście na strone organic24.pl 2. Nie zalogowanie się do konta na gmail'u</t>
-  </si>
-  <si>
     <t>Powinien wyświetlić się komunikat "wprowadź poprawne dane do logowania"</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>KROK 3</t>
+  </si>
+  <si>
+    <t>1. Wejście na strone organic24.pl 2. Nie zalogowanie się do konta na gmailu</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50664B0B-605D-409E-B1BE-B3CB57C81A0F}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -899,10 +899,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -925,10 +925,10 @@
         <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -951,10 +951,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -974,13 +974,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1000,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1020,95 +1020,95 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
